--- a/data/pca/factorExposure/factorExposure_2010-03-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-03-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01841442751333687</v>
+        <v>0.01707112330598189</v>
       </c>
       <c r="C2">
-        <v>0.003537463513371335</v>
+        <v>0.0009622202510166195</v>
       </c>
       <c r="D2">
-        <v>-0.0126562526653319</v>
+        <v>0.007312119624779553</v>
       </c>
       <c r="E2">
-        <v>-0.019393980708555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-6.173915432616793e-05</v>
+      </c>
+      <c r="F2">
+        <v>-0.009166478565667395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1280005029948246</v>
+        <v>0.0934643791588337</v>
       </c>
       <c r="C4">
-        <v>0.04776762169216824</v>
+        <v>0.01572816406284297</v>
       </c>
       <c r="D4">
-        <v>-0.04627332406539396</v>
+        <v>0.08409947444182141</v>
       </c>
       <c r="E4">
-        <v>-0.002502657810591852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02973328051637634</v>
+      </c>
+      <c r="F4">
+        <v>0.02919965916196163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.11485372547442</v>
+        <v>0.1554601224949009</v>
       </c>
       <c r="C6">
-        <v>-0.01878636452355537</v>
+        <v>0.02463689996961247</v>
       </c>
       <c r="D6">
-        <v>-0.003783698265877761</v>
+        <v>-0.02238274988126332</v>
       </c>
       <c r="E6">
-        <v>-0.0247161704993274</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01068122032178857</v>
+      </c>
+      <c r="F6">
+        <v>0.04905093425473443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07829287668335862</v>
+        <v>0.05968641922331742</v>
       </c>
       <c r="C7">
-        <v>0.02659646952958614</v>
+        <v>-0.001016225879765089</v>
       </c>
       <c r="D7">
-        <v>-0.06266866907549155</v>
+        <v>0.0523066863644237</v>
       </c>
       <c r="E7">
-        <v>-0.04066597744296387</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01323680591256887</v>
+      </c>
+      <c r="F7">
+        <v>0.04449824143855186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05439275340070533</v>
+        <v>0.05836962218240233</v>
       </c>
       <c r="C8">
-        <v>0.01125593042687051</v>
+        <v>-0.01333440686369522</v>
       </c>
       <c r="D8">
-        <v>-0.02572745979155873</v>
+        <v>0.03074309068419156</v>
       </c>
       <c r="E8">
-        <v>-0.02334326902396936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01592006288747852</v>
+      </c>
+      <c r="F8">
+        <v>-0.0288746713006403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0973800252135627</v>
+        <v>0.071526550989665</v>
       </c>
       <c r="C9">
-        <v>0.0483088639954829</v>
+        <v>0.01166604243951092</v>
       </c>
       <c r="D9">
-        <v>-0.02218913395801573</v>
+        <v>0.08456918036868398</v>
       </c>
       <c r="E9">
-        <v>-0.01580577285902865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.02383903754523657</v>
+      </c>
+      <c r="F9">
+        <v>0.04888018395712431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07273447484160241</v>
+        <v>0.09500456300252441</v>
       </c>
       <c r="C10">
-        <v>-0.165251105979639</v>
+        <v>0.01829107849779679</v>
       </c>
       <c r="D10">
-        <v>0.09397437840950355</v>
+        <v>-0.1701095316747988</v>
       </c>
       <c r="E10">
-        <v>-0.01881464265362052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.0383659629247421</v>
+      </c>
+      <c r="F10">
+        <v>-0.0559676703793412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09661335190906689</v>
+        <v>0.08768078826045424</v>
       </c>
       <c r="C11">
-        <v>0.04427335142068368</v>
+        <v>0.01142352111643593</v>
       </c>
       <c r="D11">
-        <v>-0.06525914711374943</v>
+        <v>0.1167439616436169</v>
       </c>
       <c r="E11">
-        <v>-0.04909911626171248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0475109820225397</v>
+      </c>
+      <c r="F11">
+        <v>0.02020072295959751</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1000025858805762</v>
+        <v>0.09223456949604493</v>
       </c>
       <c r="C12">
-        <v>0.05097227758017964</v>
+        <v>0.008886925167423411</v>
       </c>
       <c r="D12">
-        <v>-0.07387518489139897</v>
+        <v>0.1278958297367966</v>
       </c>
       <c r="E12">
-        <v>-0.04600220464929458</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.04783567479361885</v>
+      </c>
+      <c r="F12">
+        <v>0.019045026121377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04453225704085742</v>
+        <v>0.04405305024832573</v>
       </c>
       <c r="C13">
-        <v>0.02964936991410775</v>
+        <v>0.004043289419161153</v>
       </c>
       <c r="D13">
-        <v>0.015618101387926</v>
+        <v>0.048596821995271</v>
       </c>
       <c r="E13">
-        <v>-0.005207829480403089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.01253228481220586</v>
+      </c>
+      <c r="F13">
+        <v>0.009347204597261719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02689647770378404</v>
+        <v>0.02258609651978873</v>
       </c>
       <c r="C14">
-        <v>0.003766643558648009</v>
+        <v>0.014126754030626</v>
       </c>
       <c r="D14">
-        <v>-0.006771172491319795</v>
+        <v>0.03221686253421365</v>
       </c>
       <c r="E14">
-        <v>-0.004868025930230375</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.01773307965371603</v>
+      </c>
+      <c r="F14">
+        <v>0.0176320007425353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03010187499263268</v>
+        <v>0.03101057173681702</v>
       </c>
       <c r="C15">
-        <v>0.02523035048952043</v>
+        <v>0.005226014698565408</v>
       </c>
       <c r="D15">
-        <v>-0.005068228599804891</v>
+        <v>0.04496139426454844</v>
       </c>
       <c r="E15">
-        <v>-0.02063979274422359</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.00741899042897724</v>
+      </c>
+      <c r="F15">
+        <v>0.02788148563804838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.1008068383131573</v>
+        <v>0.07321060180453907</v>
       </c>
       <c r="C16">
-        <v>0.03577610869359089</v>
+        <v>0.002902512833396909</v>
       </c>
       <c r="D16">
-        <v>-0.07335973461809658</v>
+        <v>0.1237766139318654</v>
       </c>
       <c r="E16">
-        <v>-0.05240575857101342</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.06309547413388424</v>
+      </c>
+      <c r="F16">
+        <v>0.02545343119136892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02557424106762127</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003980980030327942</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02203892152963917</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>0.004953657314377419</v>
+      </c>
+      <c r="F18">
+        <v>-0.01672023591542709</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.05429869422497266</v>
+        <v>0.06077886172526456</v>
       </c>
       <c r="C20">
-        <v>0.01377303200498521</v>
+        <v>0.0004056197890796116</v>
       </c>
       <c r="D20">
-        <v>-0.04771963561085173</v>
+        <v>0.07661177735350075</v>
       </c>
       <c r="E20">
-        <v>0.003574771147886688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.05604498519202405</v>
+      </c>
+      <c r="F20">
+        <v>0.0245173836398516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02057955263281587</v>
+        <v>0.03879335095935276</v>
       </c>
       <c r="C21">
-        <v>-0.008510092693272799</v>
+        <v>0.0066973786808782</v>
       </c>
       <c r="D21">
-        <v>0.001866888664659832</v>
+        <v>0.03525379466553866</v>
       </c>
       <c r="E21">
-        <v>0.02919184812172236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.008070606966985623</v>
+      </c>
+      <c r="F21">
+        <v>-0.02094343599289941</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.03022216707332125</v>
+        <v>0.04393546178878159</v>
       </c>
       <c r="C22">
-        <v>-0.02361635450599647</v>
+        <v>0.001232617831637861</v>
       </c>
       <c r="D22">
-        <v>0.02762677246393314</v>
+        <v>0.001565370506911831</v>
       </c>
       <c r="E22">
-        <v>-0.04652172859171121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.02764006074361477</v>
+      </c>
+      <c r="F22">
+        <v>-0.01117142654419001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.03032184250648681</v>
+        <v>0.04396910032763066</v>
       </c>
       <c r="C23">
-        <v>-0.02359421977533545</v>
+        <v>0.001253486830371979</v>
       </c>
       <c r="D23">
-        <v>0.02713352546088264</v>
+        <v>0.001657093726903963</v>
       </c>
       <c r="E23">
-        <v>-0.0484743249174685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.02794837195096465</v>
+      </c>
+      <c r="F23">
+        <v>-0.01062934981504907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.1046718137479319</v>
+        <v>0.07932239771413671</v>
       </c>
       <c r="C24">
-        <v>0.04099672546729927</v>
+        <v>0.002992295419367436</v>
       </c>
       <c r="D24">
-        <v>-0.07374604684407246</v>
+        <v>0.120010035648366</v>
       </c>
       <c r="E24">
-        <v>-0.04186281591158757</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.05049908445744427</v>
+      </c>
+      <c r="F24">
+        <v>0.02257949470458382</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.1059046838256423</v>
+        <v>0.0848975014289273</v>
       </c>
       <c r="C25">
-        <v>0.03368027301175592</v>
+        <v>0.005236918726448749</v>
       </c>
       <c r="D25">
-        <v>-0.06435544566809351</v>
+        <v>0.1088411279739533</v>
       </c>
       <c r="E25">
-        <v>-0.05143259703894964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0333152759138162</v>
+      </c>
+      <c r="F25">
+        <v>0.02654104687960287</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04215659178309156</v>
+        <v>0.05579501672640586</v>
       </c>
       <c r="C26">
-        <v>-0.01782214443777692</v>
+        <v>0.01440112521493735</v>
       </c>
       <c r="D26">
-        <v>-0.0162233374747048</v>
+        <v>0.04221405604920669</v>
       </c>
       <c r="E26">
-        <v>-0.01065768185844615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02563941913322963</v>
+      </c>
+      <c r="F26">
+        <v>-0.009698314945621218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07060122888516736</v>
+        <v>0.1429116226917772</v>
       </c>
       <c r="C28">
-        <v>-0.2265342193033641</v>
+        <v>0.01720383944258074</v>
       </c>
       <c r="D28">
-        <v>0.207791339773846</v>
+        <v>-0.2654453362480942</v>
       </c>
       <c r="E28">
-        <v>-0.05607226143815228</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.06872491409621539</v>
+      </c>
+      <c r="F28">
+        <v>0.01971365573427128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02867285893009981</v>
+        <v>0.02692808064511012</v>
       </c>
       <c r="C29">
-        <v>0.009122380495246937</v>
+        <v>0.008359954092773734</v>
       </c>
       <c r="D29">
-        <v>0.0009700096615882734</v>
+        <v>0.03135371699551101</v>
       </c>
       <c r="E29">
-        <v>-0.006792261492263025</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.01152655220991849</v>
+      </c>
+      <c r="F29">
+        <v>-0.01230265366530871</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.116612053011751</v>
+        <v>0.06179148495473195</v>
       </c>
       <c r="C30">
-        <v>0.05536287051847221</v>
+        <v>0.004481971919560048</v>
       </c>
       <c r="D30">
-        <v>-0.02792663145809523</v>
+        <v>0.08605780496997413</v>
       </c>
       <c r="E30">
-        <v>-0.02505404992621398</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.02360458659420811</v>
+      </c>
+      <c r="F30">
+        <v>0.09279983120835046</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03030805004829539</v>
+        <v>0.04904997894169916</v>
       </c>
       <c r="C31">
-        <v>0.0073690725120173</v>
+        <v>0.01501761620194856</v>
       </c>
       <c r="D31">
-        <v>-0.02662055289147521</v>
+        <v>0.0263295763893456</v>
       </c>
       <c r="E31">
-        <v>-0.01638797515066832</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02724761573440679</v>
+      </c>
+      <c r="F31">
+        <v>-0.005738013931552298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06260741198679776</v>
+        <v>0.04849344809416254</v>
       </c>
       <c r="C32">
-        <v>-0.000629797138502643</v>
+        <v>-0.000697085718770357</v>
       </c>
       <c r="D32">
-        <v>-0.03060208414446989</v>
+        <v>0.03379173698181511</v>
       </c>
       <c r="E32">
-        <v>-0.009468831736108531</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.03074124723311559</v>
+      </c>
+      <c r="F32">
+        <v>0.00754407296619816</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.1085709406421232</v>
+        <v>0.08933056896506381</v>
       </c>
       <c r="C33">
-        <v>0.04852933657537518</v>
+        <v>0.008445984088264472</v>
       </c>
       <c r="D33">
-        <v>-0.03827994715004895</v>
+        <v>0.09789332438220683</v>
       </c>
       <c r="E33">
-        <v>-0.07933437789268212</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.04582219275047571</v>
+      </c>
+      <c r="F33">
+        <v>0.03794275045314037</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.09210040692313</v>
+        <v>0.06778688252851882</v>
       </c>
       <c r="C34">
-        <v>0.02529126823616815</v>
+        <v>0.01173784219438621</v>
       </c>
       <c r="D34">
-        <v>-0.05935683427664278</v>
+        <v>0.1043509203079651</v>
       </c>
       <c r="E34">
-        <v>-0.04332929708946508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.03498702240047238</v>
+      </c>
+      <c r="F34">
+        <v>0.03578363961289351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01454225395209603</v>
+        <v>0.02482542260895019</v>
       </c>
       <c r="C35">
-        <v>0.01187633355110105</v>
+        <v>0.002338165713401064</v>
       </c>
       <c r="D35">
-        <v>0.00240580140903681</v>
+        <v>0.01237341980008795</v>
       </c>
       <c r="E35">
-        <v>-0.006183262973870138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.01068119206832323</v>
+      </c>
+      <c r="F35">
+        <v>0.006657590570036574</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.0234041192268332</v>
+        <v>0.02518744284268406</v>
       </c>
       <c r="C36">
-        <v>0.01348837402205352</v>
+        <v>0.007394819243971001</v>
       </c>
       <c r="D36">
-        <v>0.0002424257320110125</v>
+        <v>0.03905496786310936</v>
       </c>
       <c r="E36">
-        <v>-0.004483633986656958</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.01677927148041652</v>
+      </c>
+      <c r="F36">
+        <v>0.01323151225813472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.006510348099213357</v>
+        <v>0.001532698893719361</v>
       </c>
       <c r="C38">
-        <v>0.001474864681819982</v>
+        <v>0.0002336130374132436</v>
       </c>
       <c r="D38">
-        <v>-0.001157046808437344</v>
+        <v>0.0007419792623072501</v>
       </c>
       <c r="E38">
-        <v>-0.0002383779502279983</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.001141579575166701</v>
+      </c>
+      <c r="F38">
+        <v>-0.001100983259649399</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1642315737613688</v>
+        <v>0.107044949871774</v>
       </c>
       <c r="C39">
-        <v>0.08246573117388621</v>
+        <v>0.01664429993244547</v>
       </c>
       <c r="D39">
-        <v>-0.1040340136782907</v>
+        <v>0.1536726343503267</v>
       </c>
       <c r="E39">
-        <v>-0.07864921110187163</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.06095195985909652</v>
+      </c>
+      <c r="F39">
+        <v>0.02401275926581178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.009100945072665704</v>
+        <v>0.03724694627593585</v>
       </c>
       <c r="C40">
-        <v>0.001721285585115967</v>
+        <v>0.007230797169639009</v>
       </c>
       <c r="D40">
-        <v>-0.01018871543442372</v>
+        <v>0.03312713030037037</v>
       </c>
       <c r="E40">
-        <v>0.01571338816781788</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.002464769603010779</v>
+      </c>
+      <c r="F40">
+        <v>-0.01507818766348095</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01686782466208772</v>
+        <v>0.02648933956819758</v>
       </c>
       <c r="C41">
-        <v>-0.02716428652335719</v>
+        <v>0.00650259610687039</v>
       </c>
       <c r="D41">
-        <v>-0.01071792008644187</v>
+        <v>0.01106155591488998</v>
       </c>
       <c r="E41">
-        <v>-0.007196774619458664</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.01219080647849381</v>
+      </c>
+      <c r="F41">
+        <v>-0.009192351612200018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.02603034740301923</v>
+        <v>0.04019673763280811</v>
       </c>
       <c r="C43">
-        <v>-0.02379010432929735</v>
+        <v>0.00662574270299067</v>
       </c>
       <c r="D43">
-        <v>-0.02261530022199601</v>
+        <v>0.02054440588037812</v>
       </c>
       <c r="E43">
-        <v>-0.02987671336540633</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02393357399526766</v>
+      </c>
+      <c r="F43">
+        <v>-0.01342862680432155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1440461795711979</v>
+        <v>0.07604622880532196</v>
       </c>
       <c r="C44">
-        <v>0.07052022585867511</v>
+        <v>0.02121666300820515</v>
       </c>
       <c r="D44">
-        <v>-0.05293689818818764</v>
+        <v>0.09761482784212727</v>
       </c>
       <c r="E44">
-        <v>-0.03521023091067245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0734296488863662</v>
+      </c>
+      <c r="F44">
+        <v>0.1710123797333034</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01507905491638169</v>
+        <v>0.02336601306288518</v>
       </c>
       <c r="C46">
-        <v>-0.01946927714467912</v>
+        <v>0.003587417123373376</v>
       </c>
       <c r="D46">
-        <v>-0.005590056264219155</v>
+        <v>0.01210925389125404</v>
       </c>
       <c r="E46">
-        <v>-0.03395715528677321</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02234030061200018</v>
+      </c>
+      <c r="F46">
+        <v>0.0001558722669372287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0393281489351561</v>
+        <v>0.05135963086598778</v>
       </c>
       <c r="C47">
-        <v>-0.008938791323528711</v>
+        <v>0.003263425628104853</v>
       </c>
       <c r="D47">
-        <v>-0.005846281849135876</v>
+        <v>0.01300662852687921</v>
       </c>
       <c r="E47">
-        <v>-0.007325499313542032</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.02270555826004925</v>
+      </c>
+      <c r="F47">
+        <v>-0.03945193853377787</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0401385266666856</v>
+        <v>0.04791373427988082</v>
       </c>
       <c r="C48">
-        <v>0.01644564014434763</v>
+        <v>0.00263282992324718</v>
       </c>
       <c r="D48">
-        <v>0.001389565609749401</v>
+        <v>0.05094981813784201</v>
       </c>
       <c r="E48">
-        <v>-0.01230731895790346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.005096464574653824</v>
+      </c>
+      <c r="F48">
+        <v>0.006456416757013159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2229332235982145</v>
+        <v>0.2024793120534625</v>
       </c>
       <c r="C49">
-        <v>-0.04386375074885774</v>
+        <v>0.01762486047397167</v>
       </c>
       <c r="D49">
-        <v>-0.04744998481844485</v>
+        <v>-0.01127264480283345</v>
       </c>
       <c r="E49">
-        <v>0.01723069741948547</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.03262346495254029</v>
+      </c>
+      <c r="F49">
+        <v>0.02930483187171799</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03902977694368283</v>
+        <v>0.04860412157037653</v>
       </c>
       <c r="C50">
-        <v>0.00342763914276672</v>
+        <v>0.01102650335839016</v>
       </c>
       <c r="D50">
-        <v>-0.03466423089837249</v>
+        <v>0.02599929735185989</v>
       </c>
       <c r="E50">
-        <v>-0.01118581222168144</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0290894092709608</v>
+      </c>
+      <c r="F50">
+        <v>0.006249392866699283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008647184239286823</v>
+        <v>0.002162954139769531</v>
       </c>
       <c r="C51">
-        <v>-0.01150344928366816</v>
+        <v>0.0005500516880371054</v>
       </c>
       <c r="D51">
-        <v>0.009693573608663755</v>
+        <v>-0.00221899661746131</v>
       </c>
       <c r="E51">
-        <v>-0.01560273287223263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>2.668971067703126e-05</v>
+      </c>
+      <c r="F51">
+        <v>0.004090487561594882</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1334282403559466</v>
+        <v>0.1452004804534844</v>
       </c>
       <c r="C52">
-        <v>0.07275402535408189</v>
+        <v>0.01391715707438248</v>
       </c>
       <c r="D52">
-        <v>-0.0325539203011279</v>
+        <v>0.04898082524386937</v>
       </c>
       <c r="E52">
-        <v>0.01306222949810846</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>-0.02401142498048259</v>
+      </c>
+      <c r="F52">
+        <v>0.0385093717946122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1499204226164193</v>
+        <v>0.1738007091566412</v>
       </c>
       <c r="C53">
-        <v>0.0007165736120097922</v>
+        <v>0.0168756587166224</v>
       </c>
       <c r="D53">
-        <v>0.002147636651257187</v>
+        <v>0.008216494346749406</v>
       </c>
       <c r="E53">
-        <v>0.02959908679247832</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03476243240414439</v>
+      </c>
+      <c r="F53">
+        <v>0.06925215695989638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.04881859414344179</v>
+        <v>0.0223786366513309</v>
       </c>
       <c r="C54">
-        <v>0.001633076266020381</v>
+        <v>0.01228555050493085</v>
       </c>
       <c r="D54">
-        <v>-0.01438138356205902</v>
+        <v>0.03280632424598402</v>
       </c>
       <c r="E54">
-        <v>-0.01237901071337474</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01470890217329037</v>
+      </c>
+      <c r="F54">
+        <v>-0.002656089469471832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08650690329599024</v>
+        <v>0.1144818521709606</v>
       </c>
       <c r="C55">
-        <v>0.02461514126004283</v>
+        <v>0.01545109829255371</v>
       </c>
       <c r="D55">
-        <v>0.006488469838169518</v>
+        <v>0.0109357787710458</v>
       </c>
       <c r="E55">
-        <v>-0.03302120080644829</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03108453508955851</v>
+      </c>
+      <c r="F55">
+        <v>0.04522703253548677</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1592447494114998</v>
+        <v>0.1775753799210985</v>
       </c>
       <c r="C56">
-        <v>0.0204763606541042</v>
+        <v>0.01431222997304046</v>
       </c>
       <c r="D56">
-        <v>-0.03475210196294429</v>
+        <v>0.005599394651448273</v>
       </c>
       <c r="E56">
-        <v>-0.007837431145576442</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04057853202123904</v>
+      </c>
+      <c r="F56">
+        <v>0.04736290215833307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0457411135689536</v>
+        <v>0.04644392898910351</v>
       </c>
       <c r="C58">
-        <v>-0.002153797186584184</v>
+        <v>0.001274679788351477</v>
       </c>
       <c r="D58">
-        <v>-0.01453595085838401</v>
+        <v>0.06823438511454823</v>
       </c>
       <c r="E58">
-        <v>0.007266945691392746</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.02486901116343912</v>
+      </c>
+      <c r="F58">
+        <v>-0.04058957433814869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1358560251019943</v>
+        <v>0.1719216225461298</v>
       </c>
       <c r="C59">
-        <v>-0.2149423650548553</v>
+        <v>0.01768904920568203</v>
       </c>
       <c r="D59">
-        <v>0.1843588816488774</v>
+        <v>-0.2226804565262813</v>
       </c>
       <c r="E59">
-        <v>-0.05565266819015041</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.04723810529780618</v>
+      </c>
+      <c r="F59">
+        <v>-0.03080787267363125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2801130485574781</v>
+        <v>0.23492828359957</v>
       </c>
       <c r="C60">
-        <v>0.0455206860967937</v>
+        <v>-0.004256310322600246</v>
       </c>
       <c r="D60">
-        <v>-0.046086450933838</v>
+        <v>0.04341662171243513</v>
       </c>
       <c r="E60">
-        <v>0.09429726216061778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.01115352690069809</v>
+      </c>
+      <c r="F60">
+        <v>-0.02365542498890134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1242685850836122</v>
+        <v>0.08332928089992199</v>
       </c>
       <c r="C61">
-        <v>0.05509447028768161</v>
+        <v>0.01269950500533053</v>
       </c>
       <c r="D61">
-        <v>-0.04496979523721995</v>
+        <v>0.1161436281427132</v>
       </c>
       <c r="E61">
-        <v>-0.06015958729709611</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.04099367560724398</v>
+      </c>
+      <c r="F61">
+        <v>0.01230331913678626</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1613315550259783</v>
+        <v>0.1699755286296768</v>
       </c>
       <c r="C62">
-        <v>0.01105167645528582</v>
+        <v>0.01786738528932214</v>
       </c>
       <c r="D62">
-        <v>-0.01558398037501473</v>
+        <v>0.01019057144072699</v>
       </c>
       <c r="E62">
-        <v>0.003763962134473343</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.03687408858776945</v>
+      </c>
+      <c r="F62">
+        <v>0.02922979664860032</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04796118900679641</v>
+        <v>0.04288894931878173</v>
       </c>
       <c r="C63">
-        <v>0.01811257042877912</v>
+        <v>0.002585675095605961</v>
       </c>
       <c r="D63">
-        <v>-0.007968967451511329</v>
+        <v>0.05630502009745995</v>
       </c>
       <c r="E63">
-        <v>-0.03084313783389988</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02060214333595963</v>
+      </c>
+      <c r="F63">
+        <v>0.006609999806556245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0978018526108809</v>
+        <v>0.1109117810224577</v>
       </c>
       <c r="C64">
-        <v>0.01532500107150471</v>
+        <v>0.01111368072006652</v>
       </c>
       <c r="D64">
-        <v>-0.02972144972146103</v>
+        <v>0.04142102082819699</v>
       </c>
       <c r="E64">
-        <v>-0.005719039480082879</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02046629149756164</v>
+      </c>
+      <c r="F64">
+        <v>0.0281758556586853</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1161189575038734</v>
+        <v>0.1467723132876872</v>
       </c>
       <c r="C65">
-        <v>0.00666756565752376</v>
+        <v>0.03129214598562668</v>
       </c>
       <c r="D65">
-        <v>0.01612072322438548</v>
+        <v>-0.0419845371071045</v>
       </c>
       <c r="E65">
-        <v>-0.0006115359107703537</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.001283171876370259</v>
+      </c>
+      <c r="F65">
+        <v>0.04362760077480687</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.186821769678138</v>
+        <v>0.1277087727094838</v>
       </c>
       <c r="C66">
-        <v>0.08100302417893425</v>
+        <v>0.01444803793402355</v>
       </c>
       <c r="D66">
-        <v>-0.1171487814231137</v>
+        <v>0.1431818156417751</v>
       </c>
       <c r="E66">
-        <v>-0.08280518124860825</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.06825528141818953</v>
+      </c>
+      <c r="F66">
+        <v>0.02885063074765044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.07813369015928122</v>
+        <v>0.06371469281255589</v>
       </c>
       <c r="C67">
-        <v>0.03549789210111953</v>
+        <v>0.002862110062356027</v>
       </c>
       <c r="D67">
-        <v>-0.01340628492749712</v>
+        <v>0.05669846090170949</v>
       </c>
       <c r="E67">
-        <v>-0.07574371955167983</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01791792097137957</v>
+      </c>
+      <c r="F67">
+        <v>-0.04022768148902715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.06581550978965935</v>
+        <v>0.1172391696630885</v>
       </c>
       <c r="C68">
-        <v>-0.2060829372996325</v>
+        <v>0.02755244043409158</v>
       </c>
       <c r="D68">
-        <v>0.1859914435924578</v>
+        <v>-0.2608889575237134</v>
       </c>
       <c r="E68">
-        <v>-0.03900771519672078</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.08555120988180075</v>
+      </c>
+      <c r="F68">
+        <v>0.02005164888524863</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03347460847038378</v>
+        <v>0.03912841464278497</v>
       </c>
       <c r="C69">
-        <v>0.004013616533374796</v>
+        <v>0.0008719542632405349</v>
       </c>
       <c r="D69">
-        <v>0.01674663366474372</v>
+        <v>0.008170344551818341</v>
       </c>
       <c r="E69">
-        <v>-0.02821115702403537</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02376995385425999</v>
+      </c>
+      <c r="F69">
+        <v>-0.005943324260403489</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.02651289787639168</v>
+        <v>0.06254315306175041</v>
       </c>
       <c r="C70">
-        <v>0.00155388010193975</v>
+        <v>-0.02868222418137579</v>
       </c>
       <c r="D70">
-        <v>0.0293367018385601</v>
+        <v>0.02938009024286002</v>
       </c>
       <c r="E70">
-        <v>-0.03785798876326952</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>0.04829266234642147</v>
+      </c>
+      <c r="F70">
+        <v>-0.2348909592010915</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.07664048543738487</v>
+        <v>0.1362874865203851</v>
       </c>
       <c r="C71">
-        <v>-0.2165920466708744</v>
+        <v>0.03203456371299781</v>
       </c>
       <c r="D71">
-        <v>0.2015183849025377</v>
+        <v>-0.2749234547100628</v>
       </c>
       <c r="E71">
-        <v>-0.05199472385918975</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.09545926885341142</v>
+      </c>
+      <c r="F71">
+        <v>0.02393944665756899</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1333583561341103</v>
+        <v>0.1414381669993138</v>
       </c>
       <c r="C72">
-        <v>-0.03371791326401911</v>
+        <v>0.02495676959080708</v>
       </c>
       <c r="D72">
-        <v>0.0009092349717506557</v>
+        <v>0.001347872466932632</v>
       </c>
       <c r="E72">
-        <v>-0.01875549217828426</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.04303651030287267</v>
+      </c>
+      <c r="F72">
+        <v>0.02979629495657963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2203167012471759</v>
+        <v>0.2015737969061303</v>
       </c>
       <c r="C73">
-        <v>-0.02763072311698417</v>
+        <v>0.01179767292392</v>
       </c>
       <c r="D73">
-        <v>-0.007486784834123641</v>
+        <v>0.0146489517566184</v>
       </c>
       <c r="E73">
-        <v>-0.03354891377723516</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.0655921728474307</v>
+      </c>
+      <c r="F73">
+        <v>0.02515642922904377</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1087718132234985</v>
+        <v>0.09445883893837143</v>
       </c>
       <c r="C74">
-        <v>-0.001571438640243347</v>
+        <v>0.01219703106944341</v>
       </c>
       <c r="D74">
-        <v>-0.03142874421077817</v>
+        <v>0.01962229648731729</v>
       </c>
       <c r="E74">
-        <v>-0.01491258601293308</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.04843176063286096</v>
+      </c>
+      <c r="F74">
+        <v>0.0507160479888073</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1286180061042535</v>
+        <v>0.1290034330481439</v>
       </c>
       <c r="C75">
-        <v>0.01641352932766068</v>
+        <v>0.02659916172678265</v>
       </c>
       <c r="D75">
-        <v>-0.04394809163380776</v>
+        <v>0.032812275929073</v>
       </c>
       <c r="E75">
-        <v>-0.008457477483196155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.06076367932804155</v>
+      </c>
+      <c r="F75">
+        <v>0.01483752054482226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.01307811874540686</v>
+        <v>0.002926179637985415</v>
       </c>
       <c r="C76">
-        <v>-0.01115255516022107</v>
+        <v>0.0007267549745779337</v>
       </c>
       <c r="D76">
-        <v>0.008987564589672538</v>
+        <v>-0.002094840210533533</v>
       </c>
       <c r="E76">
-        <v>-0.01144548148075921</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.0004098706293491644</v>
+      </c>
+      <c r="F76">
+        <v>0.003917347354167268</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08921275234034745</v>
+        <v>0.07945970160307217</v>
       </c>
       <c r="C77">
-        <v>0.08011719259470403</v>
+        <v>0.00867651461228031</v>
       </c>
       <c r="D77">
-        <v>-0.07902682522955863</v>
+        <v>0.1187583904121895</v>
       </c>
       <c r="E77">
-        <v>0.01205581293917763</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.03977034362931885</v>
+      </c>
+      <c r="F77">
+        <v>0.03008918363936167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09592280058092659</v>
+        <v>0.1032596399383482</v>
       </c>
       <c r="C78">
-        <v>-0.06572854082883689</v>
+        <v>0.03982519830790318</v>
       </c>
       <c r="D78">
-        <v>-0.1139540364155304</v>
+        <v>0.1163364517466692</v>
       </c>
       <c r="E78">
-        <v>-0.1752814390945899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.07973645159011546</v>
+      </c>
+      <c r="F78">
+        <v>0.05907545855509413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1399220086554611</v>
+        <v>0.1642876167608147</v>
       </c>
       <c r="C79">
-        <v>0.000416583467076608</v>
+        <v>0.02058666517342967</v>
       </c>
       <c r="D79">
-        <v>-0.06117497572438925</v>
+        <v>0.01907120148749495</v>
       </c>
       <c r="E79">
-        <v>0.01434497195980185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05002956203063404</v>
+      </c>
+      <c r="F79">
+        <v>0.006435351625492591</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08654315166876148</v>
+        <v>0.0812896402509207</v>
       </c>
       <c r="C80">
-        <v>0.06593677775449371</v>
+        <v>-0.0008092475403899415</v>
       </c>
       <c r="D80">
-        <v>-0.03646389365675036</v>
+        <v>0.05812756221403829</v>
       </c>
       <c r="E80">
-        <v>-0.05728955785237404</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03592133274372673</v>
+      </c>
+      <c r="F80">
+        <v>-0.02615993241095807</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.145622626231099</v>
+        <v>0.1233662177898338</v>
       </c>
       <c r="C81">
-        <v>0.01764376481842162</v>
+        <v>0.0304147512158127</v>
       </c>
       <c r="D81">
-        <v>-0.05699397199515951</v>
+        <v>0.01692978136357459</v>
       </c>
       <c r="E81">
-        <v>-0.02235512719836372</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.06043344848965098</v>
+      </c>
+      <c r="F81">
+        <v>0.01070962107456678</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1697754500973177</v>
+        <v>0.1640816415933642</v>
       </c>
       <c r="C82">
-        <v>0.03376826844833303</v>
+        <v>0.02265238087568655</v>
       </c>
       <c r="D82">
-        <v>-0.02942338995383278</v>
+        <v>0.00877194704720473</v>
       </c>
       <c r="E82">
-        <v>-0.01272582841931886</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.0332592826053006</v>
+      </c>
+      <c r="F82">
+        <v>0.07178866905334201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07493595134130436</v>
+        <v>0.06193993882968257</v>
       </c>
       <c r="C83">
-        <v>0.01962814379837942</v>
+        <v>0.003142257976168039</v>
       </c>
       <c r="D83">
-        <v>0.002545069947471365</v>
+        <v>0.04950648302263827</v>
       </c>
       <c r="E83">
-        <v>0.05455829538883325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.005748708777070942</v>
+      </c>
+      <c r="F83">
+        <v>-0.0397254406735006</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.07623372765855248</v>
+        <v>0.05865983210208019</v>
       </c>
       <c r="C84">
-        <v>0.02021781739958936</v>
+        <v>0.01074299493049963</v>
       </c>
       <c r="D84">
-        <v>-0.005250206602363114</v>
+        <v>0.06633503387893447</v>
       </c>
       <c r="E84">
-        <v>-0.0009028840350092955</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.005257825411870819</v>
+      </c>
+      <c r="F84">
+        <v>0.007342045083737354</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1241160961496017</v>
+        <v>0.1387640287270817</v>
       </c>
       <c r="C85">
-        <v>-0.001743691665464539</v>
+        <v>0.02637876096189121</v>
       </c>
       <c r="D85">
-        <v>-0.01828982704283118</v>
+        <v>0.01257464439980391</v>
       </c>
       <c r="E85">
-        <v>-0.0008288039838349352</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.04097457132206682</v>
+      </c>
+      <c r="F85">
+        <v>0.04596857755291181</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1237001732656026</v>
+        <v>0.09575809335831882</v>
       </c>
       <c r="C86">
-        <v>-0.2264944201913449</v>
+        <v>-0.00553787529260294</v>
       </c>
       <c r="D86">
-        <v>-0.1967695984857375</v>
+        <v>0.03482132416138013</v>
       </c>
       <c r="E86">
-        <v>0.8887993220245133</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.1666974248644223</v>
+      </c>
+      <c r="F86">
+        <v>-0.8981014299418576</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1177176899827943</v>
+        <v>0.09537521950344882</v>
       </c>
       <c r="C87">
-        <v>0.1037791980924024</v>
+        <v>0.02203586782418354</v>
       </c>
       <c r="D87">
-        <v>0.005161987906189393</v>
+        <v>0.09290843759342782</v>
       </c>
       <c r="E87">
-        <v>0.0001884995324266975</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.05424196874376615</v>
+      </c>
+      <c r="F87">
+        <v>0.0685317095746245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.04760468797070828</v>
+        <v>0.06105152808304744</v>
       </c>
       <c r="C88">
-        <v>0.005014067648275401</v>
+        <v>0.002385932413229144</v>
       </c>
       <c r="D88">
-        <v>-0.03037267820847294</v>
+        <v>0.05095801577138188</v>
       </c>
       <c r="E88">
-        <v>-0.03980618951683525</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02605264493325526</v>
+      </c>
+      <c r="F88">
+        <v>0.009497783713334573</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1179510388674505</v>
+        <v>0.1351831805682812</v>
       </c>
       <c r="C89">
-        <v>-0.2823449428680134</v>
+        <v>0.009945274972615494</v>
       </c>
       <c r="D89">
-        <v>0.2527635150839319</v>
+        <v>-0.2533735529839314</v>
       </c>
       <c r="E89">
-        <v>-0.0286651633061122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.08933297387328681</v>
+      </c>
+      <c r="F89">
+        <v>0.007567370760855932</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.08735307868007056</v>
+        <v>0.1481179810028145</v>
       </c>
       <c r="C90">
-        <v>-0.2240996774673931</v>
+        <v>0.02768310441866587</v>
       </c>
       <c r="D90">
-        <v>0.2026207777712466</v>
+        <v>-0.2663360458115286</v>
       </c>
       <c r="E90">
-        <v>-0.03682971842153324</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.1096702960859385</v>
+      </c>
+      <c r="F90">
+        <v>0.009141146559247613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.09025332423664978</v>
+        <v>0.1198939101458495</v>
       </c>
       <c r="C91">
-        <v>0.003262647239988002</v>
+        <v>0.01707154810966461</v>
       </c>
       <c r="D91">
-        <v>-0.02897326801993792</v>
+        <v>-0.0102587567787517</v>
       </c>
       <c r="E91">
-        <v>0.009569674903597839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.0579231242859519</v>
+      </c>
+      <c r="F91">
+        <v>-0.01180322348325717</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1010187522788651</v>
+        <v>0.1495245006135463</v>
       </c>
       <c r="C92">
-        <v>-0.2378449053094948</v>
+        <v>0.01917342018902954</v>
       </c>
       <c r="D92">
-        <v>0.240568066884205</v>
+        <v>-0.2900694657745614</v>
       </c>
       <c r="E92">
-        <v>-0.0204058031616628</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.1027748150534784</v>
+      </c>
+      <c r="F92">
+        <v>0.003310223788604443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.08564236670085704</v>
+        <v>0.1511672679040052</v>
       </c>
       <c r="C93">
-        <v>-0.2475422116470009</v>
+        <v>0.02379957563253774</v>
       </c>
       <c r="D93">
-        <v>0.2219595025809667</v>
+        <v>-0.2657956359921423</v>
       </c>
       <c r="E93">
-        <v>-0.0292055828719213</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.07652727235873517</v>
+      </c>
+      <c r="F93">
+        <v>0.01002973105815535</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1521959069647092</v>
+        <v>0.1321283678026356</v>
       </c>
       <c r="C94">
-        <v>0.01117521735947628</v>
+        <v>0.02371680154475811</v>
       </c>
       <c r="D94">
-        <v>-0.04057926437925608</v>
+        <v>0.04409506807755224</v>
       </c>
       <c r="E94">
-        <v>-0.06167796988521099</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06108903412774861</v>
+      </c>
+      <c r="F94">
+        <v>0.03380475582868694</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1218675630734284</v>
+        <v>0.1261810803279821</v>
       </c>
       <c r="C95">
-        <v>0.02091999113894566</v>
+        <v>0.00472542486188562</v>
       </c>
       <c r="D95">
-        <v>-0.04521857896661663</v>
+        <v>0.09254955112728612</v>
       </c>
       <c r="E95">
-        <v>-0.04644788389537702</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.04629444178906206</v>
+      </c>
+      <c r="F95">
+        <v>-0.0092958632593746</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.01455882740306343</v>
+        <v>0.09940732850439968</v>
       </c>
       <c r="C96">
-        <v>0.000118300704096004</v>
+        <v>-0.9887346652235844</v>
       </c>
       <c r="D96">
-        <v>-0.0008260114441093826</v>
+        <v>-0.03567059042608037</v>
       </c>
       <c r="E96">
-        <v>-0.002290902579298537</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>-0.05782981594615273</v>
+      </c>
+      <c r="F96">
+        <v>0.04228517077687619</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.176527859462317</v>
+        <v>0.1895515053242668</v>
       </c>
       <c r="C97">
-        <v>-0.0376421569259936</v>
+        <v>-0.009425369158735932</v>
       </c>
       <c r="D97">
-        <v>-0.04363689209247702</v>
+        <v>-0.0177803754152622</v>
       </c>
       <c r="E97">
-        <v>-0.0612127450888648</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.009333496044980908</v>
+      </c>
+      <c r="F97">
+        <v>-0.1008241043339833</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2425274956149706</v>
+        <v>0.2056493384013911</v>
       </c>
       <c r="C98">
-        <v>-0.0008857087871804851</v>
+        <v>0.007270767918206337</v>
       </c>
       <c r="D98">
-        <v>0.06226304189441176</v>
+        <v>0.008459359746114878</v>
       </c>
       <c r="E98">
-        <v>0.1213010440022357</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.09550821789567988</v>
+      </c>
+      <c r="F98">
+        <v>-0.09974346052916856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.04806703861221463</v>
+        <v>0.05601411738003947</v>
       </c>
       <c r="C99">
-        <v>-0.01833632069171048</v>
+        <v>-0.004312491563810522</v>
       </c>
       <c r="D99">
-        <v>-0.005195027427582554</v>
+        <v>0.03707330575643469</v>
       </c>
       <c r="E99">
-        <v>-0.04645899561174699</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.02495257971692706</v>
+      </c>
+      <c r="F99">
+        <v>0.002968540730791984</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1219636651963461</v>
+        <v>0.1244080523707088</v>
       </c>
       <c r="C100">
-        <v>0.6275113229508973</v>
+        <v>-0.05203143840726603</v>
       </c>
       <c r="D100">
-        <v>0.6779888113479349</v>
+        <v>0.3451548176001507</v>
       </c>
       <c r="E100">
-        <v>0.2362689193624267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>0.8934260129120851</v>
+      </c>
+      <c r="F100">
+        <v>-0.09046791546796534</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02859414595139657</v>
+        <v>0.02685416288268418</v>
       </c>
       <c r="C101">
-        <v>0.00915835792125955</v>
+        <v>0.008363832516050891</v>
       </c>
       <c r="D101">
-        <v>0.0008821602658822738</v>
+        <v>0.03105802687580388</v>
       </c>
       <c r="E101">
-        <v>-0.007876403455425901</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.01104654841247771</v>
+      </c>
+      <c r="F101">
+        <v>-0.01373035702410539</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
